--- a/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Produtos/servicos-salao.xlsx
+++ b/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Produtos/servicos-salao.xlsx
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>

--- a/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Produtos/servicos-salao.xlsx
+++ b/Chatbot - Agendamento de Clientes/Chatbot-JS/Chatbot/Banco de Dados - EXCEL/Base de Dados Produtos/servicos-salao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Categoria</t>
   </si>
@@ -37,34 +37,31 @@
     <t>Coloração</t>
   </si>
   <si>
+    <t>Unhas</t>
+  </si>
+  <si>
+    <t>Manicure</t>
+  </si>
+  <si>
+    <t>Pedicure</t>
+  </si>
+  <si>
+    <t>Penteados</t>
+  </si>
+  <si>
+    <t>Social Comum</t>
+  </si>
+  <si>
+    <t>Social Com Enchimentos</t>
+  </si>
+  <si>
+    <t>Trança Embutida</t>
+  </si>
+  <si>
+    <t>Trança Lateral</t>
+  </si>
+  <si>
     <t>Maquiagem</t>
-  </si>
-  <si>
-    <t>Unhas</t>
-  </si>
-  <si>
-    <t>Manicure</t>
-  </si>
-  <si>
-    <t>Pedicure</t>
-  </si>
-  <si>
-    <t>Depilação</t>
-  </si>
-  <si>
-    <t>Penteados</t>
-  </si>
-  <si>
-    <t>Social Comum</t>
-  </si>
-  <si>
-    <t>Social Com Enchimentos</t>
-  </si>
-  <si>
-    <t>Trança Embutida</t>
-  </si>
-  <si>
-    <t>Trança Lateral</t>
   </si>
   <si>
     <t>Maquiagem Social</t>
@@ -79,10 +76,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -109,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Liberation Sans"/>
+      <name val="FiraCode Nerd Font Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -128,18 +125,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,88 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -243,6 +151,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -256,6 +178,81 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -272,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,41 +518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,16 +540,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,159 +565,192 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -782,10 +779,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -849,8 +847,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="Tabela1" ref="A:B">
-  <autoFilter ref="A1:B1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="Tabela1" ref="A1:B1048574">
+  <autoFilter ref="A1:B1048574"/>
   <tableColumns count="2">
     <tableColumn id="2" name="Categoria"/>
     <tableColumn id="3" name="Preço"/>
@@ -1069,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1096,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="15.75" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1129,210 +1127,188 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    <row r="8" ht="15.75" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>80</v>
-      </c>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9">
-        <v>25</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
